--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4183235.123036016</v>
+        <v>4177513.511068129</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.58283624</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>806345.8827095091</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>250.1325537001773</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>409.3556263454267</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,7 +718,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>139.3516137835389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>74.7151540747205</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>168.8662234075642</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>78.94982522926539</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>26.32882004050054</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>121.2986878855078</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>341.7625865374715</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="Y10" t="n">
-        <v>20.31656064018939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.921725653454</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>126.0955237083901</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1587,7 +1587,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>147.0633545968146</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1821,19 +1821,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>267.2493845433995</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>157.7054415797576</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>199.05366801159</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>138.2178776215696</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>193.9790272259914</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>137.0872572463027</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>23.15212296490301</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873204</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.5769297729259</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.5468990697472</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>143.1575708948378</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>138.273299075882</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>15.11174121957136</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>11.94424739012672</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T37" t="n">
-        <v>42.42206642987947</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292653</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>61.69425125124529</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>76.34924850973013</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3918,7 +3918,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>16.94647839499195</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.108914585575</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>32.6956994135738</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>843.3415311720269</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>474.3790142316151</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="D2" t="n">
-        <v>474.3790142316151</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="E2" t="n">
-        <v>474.3790142316151</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>467.4335134824117</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1229.941371236149</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5356891811371</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>409.2948950230955</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>409.2948950230955</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>268.5356891811371</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1376.372217881286</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4573,46 +4573,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2566.650548947988</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2566.650548947988</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2312.888763586079</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018223</v>
+        <v>1981.825876242509</v>
       </c>
       <c r="W5" t="n">
-        <v>2526.577148182299</v>
+        <v>1629.057220972395</v>
       </c>
       <c r="X5" t="n">
-        <v>2153.11138992122</v>
+        <v>1255.591462711315</v>
       </c>
       <c r="Y5" t="n">
-        <v>1762.972057945408</v>
+        <v>865.4521307355029</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,22 +4643,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.9553738610023</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C7" t="n">
-        <v>270.0191909330954</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>270.0191909330954</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>270.0191909330954</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>270.0191909330954</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610023</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610023</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610023</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610023</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610023</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1560.797780174034</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1191.835263233623</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036446</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2574.625163861144</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2574.625163861144</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2320.863378499236</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2320.863378499236</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2320.863378499236</v>
+        <v>2351.934357141989</v>
       </c>
       <c r="X8" t="n">
-        <v>1947.397620238156</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y8" t="n">
-        <v>1947.397620238156</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,22 +4883,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146244</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>409.5384547146244</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W10" t="n">
-        <v>120.1212846776638</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X10" t="n">
-        <v>120.1212846776638</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5041,25 +5041,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2782.232616025902</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3329.011433084685</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>4010.914672075806</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5074,19 +5074,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161917</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142067</v>
@@ -5150,16 +5150,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282341</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>391.8664332433621</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>222.9302503154551</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>222.9302503154551</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>909.27315417834</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413794</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X13" t="n">
-        <v>391.8664332433621</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y13" t="n">
-        <v>391.8664332433621</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5263,7 +5263,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
@@ -5281,43 +5281,43 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1797.117834600129</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2330.649739272054</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330836</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5357,10 +5357,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
         <v>794.2006632320242</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>658.1567207524339</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C16" t="n">
-        <v>489.220537824527</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D16" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W16" t="n">
-        <v>839.8051855826736</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X16" t="n">
-        <v>839.8051855826736</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y16" t="n">
-        <v>839.8051855826736</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="17">
@@ -5497,46 +5497,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1971.087962216427</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M17" t="n">
-        <v>2949.638265046255</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>3496.417082105037</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,13 +5594,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>490.9164446247779</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>490.9164446247779</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>340.7998052124422</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1665.448697739413</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1665.448697739413</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1410.764209533526</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>1121.347039496565</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>893.3574885985478</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>672.5649094550176</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1729.091615892343</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2707.641918722172</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3254.420735780954</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3379.775168468997</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C22" t="n">
-        <v>3379.775168468997</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D22" t="n">
-        <v>3379.775168468997</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>3231.862074886604</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>3084.972127388694</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>4496.535381004075</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="T22" t="n">
-        <v>4274.768765573601</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U22" t="n">
-        <v>4274.768765573601</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V22" t="n">
-        <v>4078.830354234216</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W22" t="n">
-        <v>3789.413184197255</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X22" t="n">
-        <v>3561.423633299237</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y22" t="n">
-        <v>3561.423633299237</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="23">
@@ -5968,49 +5968,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972662</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1069.293752345675</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M23" t="n">
-        <v>2006.065164440651</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N23" t="n">
-        <v>2985.817436667297</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O23" t="n">
-        <v>3865.782086996752</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>730.2297869963112</v>
+        <v>500.2948715744233</v>
       </c>
       <c r="C25" t="n">
-        <v>561.2936040684043</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="D25" t="n">
-        <v>411.1769646560685</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1932.957483311872</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1932.957483311872</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1711.190867881398</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U25" t="n">
-        <v>1422.088001007042</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V25" t="n">
-        <v>1422.088001007042</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="W25" t="n">
-        <v>1132.670830970081</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X25" t="n">
-        <v>1132.670830970081</v>
+        <v>902.7359155481931</v>
       </c>
       <c r="Y25" t="n">
-        <v>911.8782518265509</v>
+        <v>681.943336404663</v>
       </c>
     </row>
     <row r="26">
@@ -6208,55 +6208,55 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.141533600159</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427193</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1390.197710791128</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193957</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604874</v>
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390123</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6326,7 +6326,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6335,16 +6335,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282342</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3698.155230093472</v>
+        <v>409.1008243407839</v>
       </c>
       <c r="C28" t="n">
-        <v>3529.219047165565</v>
+        <v>240.164641412877</v>
       </c>
       <c r="D28" t="n">
-        <v>3379.102407753229</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>3231.189314170836</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>3231.189314170836</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>3063.486477545555</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>4586.365838246547</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T28" t="n">
-        <v>4364.599222816073</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U28" t="n">
-        <v>4364.599222816073</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V28" t="n">
-        <v>4364.599222816073</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W28" t="n">
-        <v>4075.182052779112</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X28" t="n">
-        <v>3847.192501881095</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="Y28" t="n">
-        <v>3847.192501881095</v>
+        <v>590.7492891710236</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>1923.729615463053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2812.369300656583</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6548,7 +6548,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6560,16 +6560,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3623.318032432793</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>3623.318032432793</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>3623.318032432793</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>3475.4049388504</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>3328.51499135249</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>4688.221265177249</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>4466.454649746775</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>4326.784650680227</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>4072.10016247434</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>4072.10016247434</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>3844.110611576323</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>3623.318032432793</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6679,19 +6679,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6700,28 +6700,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L32" t="n">
-        <v>1586.925993846823</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2120.457898518747</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N32" t="n">
-        <v>2667.23671557753</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O32" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086361</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.18756580918</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789527</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>676.4156786811474</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C34" t="n">
-        <v>507.4794957532405</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D34" t="n">
-        <v>507.4794957532405</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E34" t="n">
-        <v>507.4794957532405</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
@@ -6891,19 +6891,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V34" t="n">
-        <v>909.2731541783409</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W34" t="n">
-        <v>897.2082578246775</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X34" t="n">
-        <v>897.2082578246775</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y34" t="n">
-        <v>676.4156786811474</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="35">
@@ -6916,46 +6916,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972665</v>
+        <v>888.4135721382786</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N35" t="n">
-        <v>3130.95002174635</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075805</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6967,16 +6967,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468568</v>
@@ -7016,19 +7016,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,7 +7046,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447819</v>
@@ -7055,13 +7055,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>877.1197344942216</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7098,16 +7098,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
         <v>1646.12566951853</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1866.513008862232</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T37" t="n">
-        <v>1823.662436710839</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1823.662436710839</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1568.977948504952</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>1279.560778467991</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>1279.560778467991</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1058.768199324461</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001591</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>451.8458144277729</v>
@@ -7180,46 +7180,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2816.030799058633</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3362.809616117415</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3865.782086996752</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>487.6897527103525</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C40" t="n">
-        <v>487.6897527103525</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D40" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1894.026040598395</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1702.340156425222</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1480.573540994748</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>1480.573540994748</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V40" t="n">
-        <v>1225.889052788861</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W40" t="n">
-        <v>936.4718827519</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X40" t="n">
-        <v>708.4823318538827</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y40" t="n">
-        <v>487.6897527103525</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="41">
@@ -7393,19 +7393,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7414,22 +7414,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>3044.228895027648</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
         <v>4719.034655862919</v>
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
@@ -7496,7 +7496,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>721.4017538805575</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="C43" t="n">
-        <v>721.4017538805575</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D43" t="n">
-        <v>721.4017538805575</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E43" t="n">
-        <v>573.4886602981644</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F43" t="n">
-        <v>426.598712800254</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G43" t="n">
-        <v>258.895876174973</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H43" t="n">
-        <v>112.6786893928307</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7599,22 +7599,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1385.724257814702</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>1131.039769608815</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W43" t="n">
-        <v>1131.039769608815</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="X43" t="n">
-        <v>903.0502187107973</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="Y43" t="n">
-        <v>903.0502187107973</v>
+        <v>951.7264155301116</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2883.993034926781</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
         <v>794.2006632320242</v>
@@ -7745,16 +7745,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>719.7238607267858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>719.7238607267858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>569.60722131445</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>421.6941277320569</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>274.8041802341465</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>1734.57685067423</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1445.473983799873</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>1190.789495593986</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>901.3723255570255</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>901.3723255570255</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>901.3723255570255</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.66121455045</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992663</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>344.7025836476837</v>
       </c>
       <c r="O11" t="n">
-        <v>180.7381496078631</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8929,16 +8929,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>411.0304280899001</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>39.4832155777267</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8947,10 +8947,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9169,25 +9169,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>77.35795430877238</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>342.3170758598135</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M23" t="n">
-        <v>407.3126337606584</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,25 +9880,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>132.9990175570114</v>
       </c>
       <c r="M26" t="n">
-        <v>295.4822118493992</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10123,16 +10123,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>345.3140082169174</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>198.7154374299943</v>
+        <v>288.0478149561023</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>103.7862464855144</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>124.0833809162801</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10828,25 +10828,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>314.5564971416977</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,25 +11062,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>161.8544041422902</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>161.8544041422902</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>20.33843893817907</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>18.96245366221342</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>128.8175567568334</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>20.49528126457915</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>51.55114770987225</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>58.15861609783656</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>28.93855101272555</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>65.78002970514433</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.28508111219008</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>5.457902123374595</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>147.9385391297309</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>271.1000969860415</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>274.5787509464643</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T37" t="n">
-        <v>177.1268828462897</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>27.23790141880204</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>142.2354048423647</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>79.40594201484615</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,19 +25839,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>76.41408375101605</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26028,19 +26028,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>133.3301088454544</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>612978.2587199846</v>
+        <v>612978.2587199847</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>612978.2587199847</v>
+        <v>612978.2587199846</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>612978.2587199847</v>
+        <v>612978.2587199846</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>612978.2587199847</v>
+        <v>612978.2587199846</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>612978.2587199847</v>
+        <v>612978.2587199846</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>612978.2587199846</v>
+        <v>612978.2587199847</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642832</v>
+      </c>
+      <c r="C2" t="n">
+        <v>821041.769864283</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.7698642833</v>
       </c>
-      <c r="C2" t="n">
-        <v>821041.7698642832</v>
-      </c>
-      <c r="D2" t="n">
-        <v>821041.7698642834</v>
-      </c>
       <c r="E2" t="n">
-        <v>794163.5737739659</v>
+        <v>794163.5737739664</v>
       </c>
       <c r="F2" t="n">
         <v>794163.5737739661</v>
       </c>
       <c r="G2" t="n">
+        <v>794163.5737739661</v>
+      </c>
+      <c r="H2" t="n">
+        <v>794163.5737739659</v>
+      </c>
+      <c r="I2" t="n">
+        <v>794163.5737739659</v>
+      </c>
+      <c r="J2" t="n">
         <v>794163.5737739662</v>
       </c>
-      <c r="H2" t="n">
-        <v>794163.5737739662</v>
-      </c>
-      <c r="I2" t="n">
-        <v>794163.5737739662</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>794163.5737739657</v>
+      </c>
+      <c r="L2" t="n">
+        <v>794163.5737739664</v>
+      </c>
+      <c r="M2" t="n">
         <v>794163.5737739661</v>
       </c>
-      <c r="K2" t="n">
-        <v>794163.5737739664</v>
-      </c>
-      <c r="L2" t="n">
-        <v>794163.5737739662</v>
-      </c>
-      <c r="M2" t="n">
-        <v>794163.5737739663</v>
-      </c>
       <c r="N2" t="n">
-        <v>794163.5737739663</v>
+        <v>794163.5737739659</v>
       </c>
       <c r="O2" t="n">
-        <v>794163.5737739664</v>
+        <v>794163.5737739661</v>
       </c>
       <c r="P2" t="n">
         <v>794163.5737739661</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934063</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389449</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
+        <v>18148.4923191899</v>
+      </c>
+      <c r="G4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="G4" t="n">
-        <v>18148.49231918996</v>
-      </c>
       <c r="H4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231919</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918989</v>
       </c>
       <c r="N4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="O4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="P4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
     </row>
     <row r="5">
@@ -26472,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
-      <c r="D5" t="n">
-        <v>82859.07806340948</v>
-      </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
@@ -26493,10 +26493,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26505,13 +26505,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-35133.87427079858</v>
+        <v>-35133.87427079881</v>
       </c>
       <c r="C6" t="n">
-        <v>554834.0049437458</v>
+        <v>554834.0049437457</v>
       </c>
       <c r="D6" t="n">
         <v>554834.0049437459</v>
       </c>
       <c r="E6" t="n">
-        <v>-47745.850792344</v>
+        <v>-48417.80569460169</v>
       </c>
       <c r="F6" t="n">
-        <v>679631.5632010625</v>
+        <v>678959.6082988046</v>
       </c>
       <c r="G6" t="n">
-        <v>679631.5632010626</v>
+        <v>678959.6082988046</v>
       </c>
       <c r="H6" t="n">
-        <v>679631.5632010626</v>
+        <v>678959.6082988045</v>
       </c>
       <c r="I6" t="n">
-        <v>679631.5632010626</v>
+        <v>678959.6082988045</v>
       </c>
       <c r="J6" t="n">
-        <v>503208.3440084694</v>
+        <v>502536.3891062117</v>
       </c>
       <c r="K6" t="n">
-        <v>679631.5632010627</v>
+        <v>678959.6082988043</v>
       </c>
       <c r="L6" t="n">
-        <v>679631.5632010626</v>
+        <v>678959.608298805</v>
       </c>
       <c r="M6" t="n">
-        <v>549989.2483621178</v>
+        <v>549317.2934598598</v>
       </c>
       <c r="N6" t="n">
-        <v>679631.5632010628</v>
+        <v>678959.6082988045</v>
       </c>
       <c r="O6" t="n">
-        <v>679631.5632010628</v>
+        <v>678959.6082988046</v>
       </c>
       <c r="P6" t="n">
-        <v>679631.5632010625</v>
+        <v>678959.6082988046</v>
       </c>
     </row>
   </sheetData>
@@ -26709,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28530774084281e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.28530774084281e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26770,7 +26770,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.28530774084281e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762113</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,13 +26986,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.28530774084281e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>131.7978163720845</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.428543675368246</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>141.9938968421883</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>79.23303956855591</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>99.700558734251</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>180.3747453098488</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>88.35997702978553</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>192.2558333115942</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>53.11702492346375</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>7.478382179941548</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724685</v>
       </c>
       <c r="Y10" t="n">
-        <v>198.2680927119054</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435297</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>897.0044190605952</v>
       </c>
       <c r="O11" t="n">
-        <v>688.7911504960821</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,16 +35649,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>866.6205424822323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>591.7850509906382</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
@@ -35667,10 +35667,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>585.4109551969914</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>797.9071902521455</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M23" t="n">
-        <v>946.2337495908849</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597769</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>588.5891319493436</v>
       </c>
       <c r="M26" t="n">
-        <v>834.4033276796257</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
@@ -36843,16 +36843,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>897.6158436298289</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>654.3055518223265</v>
+        <v>743.6379293484345</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37092,7 +37092,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554006</v>
+        <v>440.9775330409149</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>676.3852163291916</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509647</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>853.4776129719245</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>714.1562395552016</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38031,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>669.9074050305093</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38040,7 +38040,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4177513.511068129</v>
+        <v>4180919.002192579</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.58283624</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095091</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7223856.707934682</v>
+        <v>7223856.707934683</v>
       </c>
     </row>
     <row r="11">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>25.31590541686258</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>74.7151540747205</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>26.32882004050054</v>
+        <v>26.32882004050031</v>
       </c>
     </row>
     <row r="8">
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>341.7625865374715</v>
+        <v>341.762586537471</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>128.7835007017903</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710081</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>147.0633545968146</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>267.2493845433995</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2058,7 +2058,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785981</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>138.2178776215696</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>191.7148211434526</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>137.0872572463027</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>143.1575708948378</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>6.38006817584793</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.921725653453</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2851,7 +2851,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>15.11174121957136</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T35" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>20.51984767220247</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292653</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>59.90320919298912</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>76.34924850973013</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192033</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>210.108914585575</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>111.9187566128689</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761947</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482878</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359521</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E4" t="n">
-        <v>79.51460345355898</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F4" t="n">
-        <v>79.51460345355898</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4731,43 +4731,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
         <v>701.5342164887571</v>
@@ -4795,22 +4795,22 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,25 +4822,25 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
         <v>2351.934357141989</v>
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>184.027325963587</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5035,7 +5035,7 @@
         <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5053,7 +5053,7 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5074,19 +5074,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5235,16 +5235,16 @@
         <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="14">
@@ -5284,16 +5284,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M14" t="n">
-        <v>2016.310259422546</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N14" t="n">
-        <v>2602.177459903277</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3530.568798281487</v>
       </c>
       <c r="P14" t="n">
         <v>4195.497197679678</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5469,19 +5469,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1183.111635982423</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>1183.111635982423</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>893.6944659454626</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>665.7049150474453</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>444.9123359039152</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1898.858917622688</v>
+        <v>1898.85891762269</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2432.390822294614</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>2979.169639353396</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232732</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5597,37 +5597,37 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5673,13 +5673,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5749,7 +5749,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>451.8458144277729</v>
@@ -5767,16 +5767,16 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
         <v>4667.761053946815</v>
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5855,10 +5855,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>263.2638710736754</v>
+        <v>707.7209910686896</v>
       </c>
       <c r="C22" t="n">
-        <v>263.2638710736754</v>
+        <v>538.7848081407827</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2638710736754</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736754</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1726.898991062666</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1726.898991062666</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U22" t="n">
-        <v>1437.79612418831</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V22" t="n">
-        <v>1183.111635982423</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W22" t="n">
-        <v>893.6944659454626</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X22" t="n">
-        <v>665.7049150474453</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y22" t="n">
-        <v>444.9123359039152</v>
+        <v>707.7209910686896</v>
       </c>
     </row>
     <row r="23">
@@ -5977,49 +5977,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1898.858917622687</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294612</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353394</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>500.2948715744233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>331.3586886465164</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>331.3586886465164</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>331.3586886465164</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>331.3586886465164</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689058</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1674.827124689058</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1420.142636483171</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1130.72546644621</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>902.7359155481931</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>681.943336404663</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6217,46 +6217,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2055.398642844494</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.177459903276</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604874</v>
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6326,7 +6326,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6335,16 +6335,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282342</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>409.1008243407839</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C28" t="n">
-        <v>240.164641412877</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1949.898952795766</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862232</v>
+        <v>1949.898952795766</v>
       </c>
       <c r="T28" t="n">
-        <v>1644.746393431758</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="U28" t="n">
-        <v>1355.643526557401</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V28" t="n">
-        <v>1100.959038351514</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W28" t="n">
-        <v>811.5418683145538</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X28" t="n">
-        <v>811.5418683145538</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y28" t="n">
-        <v>590.7492891710236</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
@@ -6460,55 +6460,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6566,10 +6566,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6648,10 +6648,10 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
         <v>1270.093287563029</v>
@@ -6691,13 +6691,13 @@
         <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>451.8458144277729</v>
@@ -6709,28 +6709,28 @@
         <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2055.398642844494</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903276</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6755,64 +6755,64 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6885,25 +6885,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1437.79612418831</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1183.111635982423</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>893.6944659454626</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>665.7049150474453</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>444.9123359039152</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6922,16 +6922,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -6940,7 +6940,7 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>888.4135721382786</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
         <v>1339.447785386687</v>
@@ -6967,22 +6967,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>680.5797464134954</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>511.6435634855885</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>361.5269240732528</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>213.6138304908596</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.196154437386</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.093287563029</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.408799357142</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W37" t="n">
-        <v>725.9916293201816</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>680.5797464134954</v>
       </c>
     </row>
     <row r="38">
@@ -7156,19 +7156,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001591</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7183,10 +7183,10 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089883</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468559</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7274,31 +7274,31 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>414.6138567886371</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C40" t="n">
-        <v>245.6776738607302</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
         <v>95.56103444839442</v>
@@ -7362,22 +7362,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1734.57685067423</v>
+        <v>1895.835173990573</v>
       </c>
       <c r="U40" t="n">
-        <v>1445.473983799873</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V40" t="n">
-        <v>1190.789495593986</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W40" t="n">
-        <v>901.3723255570255</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X40" t="n">
-        <v>673.3827746590082</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y40" t="n">
-        <v>596.2623216188767</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,7 +7520,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
         <v>2043.809373447819</v>
@@ -7529,7 +7529,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X42" t="n">
         <v>1346.568408282342</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7572,16 +7572,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O43" t="n">
         <v>1646.12566951853</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1163.957642384228</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>951.7264155301116</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>951.7264155301116</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>951.7264155301116</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7627,25 +7627,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
         <v>451.8458144277729</v>
@@ -7663,37 +7663,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
@@ -7724,37 +7724,37 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.66121455045</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783515</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8701,10 +8701,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>344.7025836476837</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8932,19 +8932,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>39.4832155777267</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>272.8828616575881</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476859</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9643,7 +9643,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>344.7025836476828</v>
+        <v>29.61882225792226</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,28 +9877,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>132.9990175570114</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>288.0478149561023</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10588,10 +10588,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>103.7862464855144</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>103.7862464855143</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10831,13 +10831,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>344.7025836476839</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476831</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>18.96245366221342</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>105.0742887270147</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>51.55114770987225</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>26.86983220864224</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>28.93855101272555</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>5.457902123374595</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>82.55208449419941</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>271.1000969860415</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9012003507288</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25602,7 +25602,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>159.6457400831801</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>142.2354048423647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>16.14213605696585</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>76.41408375101605</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>113.7908987761683</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>612978.2587199847</v>
+        <v>612978.2587199846</v>
       </c>
     </row>
     <row r="7">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>612978.2587199846</v>
+        <v>612978.2587199847</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>612978.2587199846</v>
+        <v>612978.2587199847</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>612978.2587199847</v>
+        <v>612978.2587199846</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>612978.2587199846</v>
+        <v>612978.2587199847</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>794163.5737739664</v>
+        <v>794163.5737739662</v>
       </c>
       <c r="F2" t="n">
         <v>794163.5737739661</v>
       </c>
       <c r="G2" t="n">
-        <v>794163.5737739661</v>
+        <v>794163.5737739665</v>
       </c>
       <c r="H2" t="n">
         <v>794163.5737739659</v>
       </c>
       <c r="I2" t="n">
-        <v>794163.5737739659</v>
+        <v>794163.5737739662</v>
       </c>
       <c r="J2" t="n">
+        <v>794163.5737739661</v>
+      </c>
+      <c r="K2" t="n">
+        <v>794163.5737739664</v>
+      </c>
+      <c r="L2" t="n">
+        <v>794163.5737739661</v>
+      </c>
+      <c r="M2" t="n">
         <v>794163.5737739662</v>
       </c>
-      <c r="K2" t="n">
-        <v>794163.5737739657</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>794163.5737739664</v>
       </c>
-      <c r="M2" t="n">
-        <v>794163.5737739661</v>
-      </c>
-      <c r="N2" t="n">
-        <v>794163.5737739659</v>
-      </c>
       <c r="O2" t="n">
-        <v>794163.5737739661</v>
+        <v>794163.5737739664</v>
       </c>
       <c r="P2" t="n">
-        <v>794163.5737739661</v>
+        <v>794163.5737739662</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.252616484148692e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18148.49231918989</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18148.49231918996</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18148.49231918989</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="J4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="F4" t="n">
-        <v>18148.4923191899</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18148.49231918993</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231918992</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918993</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18148.49231918993</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="N4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="O4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="P4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18148.49231918993</v>
       </c>
     </row>
     <row r="5">
@@ -26475,25 +26475,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="H5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-35133.87427079881</v>
+        <v>-35133.87427079861</v>
       </c>
       <c r="C6" t="n">
+        <v>554834.0049437456</v>
+      </c>
+      <c r="D6" t="n">
         <v>554834.0049437457</v>
       </c>
-      <c r="D6" t="n">
-        <v>554834.0049437459</v>
-      </c>
       <c r="E6" t="n">
-        <v>-48417.80569460169</v>
+        <v>-47813.04628256987</v>
       </c>
       <c r="F6" t="n">
-        <v>678959.6082988046</v>
+        <v>679564.3677108367</v>
       </c>
       <c r="G6" t="n">
-        <v>678959.6082988046</v>
+        <v>679564.3677108375</v>
       </c>
       <c r="H6" t="n">
-        <v>678959.6082988045</v>
+        <v>679564.3677108363</v>
       </c>
       <c r="I6" t="n">
-        <v>678959.6082988045</v>
+        <v>679564.3677108368</v>
       </c>
       <c r="J6" t="n">
-        <v>502536.3891062117</v>
+        <v>503141.1485182435</v>
       </c>
       <c r="K6" t="n">
-        <v>678959.6082988043</v>
+        <v>679564.367710837</v>
       </c>
       <c r="L6" t="n">
-        <v>678959.608298805</v>
+        <v>679564.3677108367</v>
       </c>
       <c r="M6" t="n">
-        <v>549317.2934598598</v>
+        <v>549922.052871892</v>
       </c>
       <c r="N6" t="n">
-        <v>678959.6082988045</v>
+        <v>679564.367710837</v>
       </c>
       <c r="O6" t="n">
-        <v>678959.6082988046</v>
+        <v>679564.3677108369</v>
       </c>
       <c r="P6" t="n">
-        <v>678959.6082988046</v>
+        <v>679564.3677108369</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26776,7 +26776,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.815770605185865e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.815770605185865e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26977,13 +26977,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.815770605185865e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>141.9938968421883</v>
+        <v>141.9938968421885</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>99.700558734251</v>
+        <v>99.70055873425103</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>192.2558333115942</v>
+        <v>192.2558333115945</v>
       </c>
     </row>
     <row r="8">
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>7.478382179941548</v>
+        <v>7.478382179942002</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>96.92615468724685</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-5.34430430944071e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32569,7 +32569,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435297</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35421,10 +35421,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>897.0044190605952</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35652,19 +35652,19 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>591.7850509906382</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>671.6448478769599</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.336699126565</v>
       </c>
       <c r="L17" t="n">
-        <v>800.2926980400159</v>
+        <v>800.2926980400177</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36217,7 +36217,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36360,28 +36360,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>800.292698040015</v>
+        <v>485.2089366502542</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>588.5891319493436</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>743.6379293484345</v>
+        <v>743.6379293484354</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37308,10 +37308,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>440.9775330409149</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>559.3763608778464</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,13 +37551,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>883.6236994779107</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359025</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
